--- a/BariLur/documents/Bari Lur -Test Scenarios.xlsx
+++ b/BariLur/documents/Bari Lur -Test Scenarios.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\shelf1\Testing\Bari Lur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\Bari Lur\BariLur\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="3765" tabRatio="670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Ընթացիկ" sheetId="2" r:id="rId2"/>
+    <sheet name="home" sheetId="2" r:id="rId2"/>
     <sheet name="Արխիվ" sheetId="15" r:id="rId3"/>
     <sheet name="Հղումներ" sheetId="16" r:id="rId4"/>
     <sheet name="Հետադարձ կապ" sheetId="17" r:id="rId5"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="144">
   <si>
     <t>Project Name</t>
   </si>
@@ -134,9 +134,6 @@
     <t>TC-1</t>
   </si>
   <si>
-    <t>TS-1 Ընթցիկ</t>
-  </si>
-  <si>
     <t>TC-2</t>
   </si>
   <si>
@@ -168,21 +165,6 @@
   </si>
   <si>
     <t>TC-12</t>
-  </si>
-  <si>
-    <t>Ստուգել ընթացիկ էջում առկա ամսագրերի աշխատունակությունը</t>
-  </si>
-  <si>
-    <t>Բարի Լուր վեբ կայքը պետք է բաց լինի ՝ https://bl-six.vercel.app/ հղումով</t>
-  </si>
-  <si>
-    <t>Ոչ Առկա</t>
-  </si>
-  <si>
-    <t>Ամեն մուտքից պետք է բացվի բրաուզերի նոր տարածք կոնկրետ ամսագրի pdf տարբերակով</t>
-  </si>
-  <si>
-    <t>1. Սեղմել առաջին ամսագրի վրա                                                          2. Սեղմել երկրորդ ամսագրի վրա                                                       3. Սեղմել երրորդ ամսագրի վրա</t>
   </si>
   <si>
     <t>TS-2 Արխիվ</t>
@@ -461,12 +443,48 @@
   <si>
     <t>Ընթացիկ էջը պետք է բացվի</t>
   </si>
+  <si>
+    <t>number of excisting jurnals</t>
+  </si>
+  <si>
+    <t>1. compare the count of journals with the expected amount</t>
+  </si>
+  <si>
+    <t>Journals should be 3 in home page</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>Web page should be opened with this url ՝ http://barilur.org/</t>
+  </si>
+  <si>
+    <t>1. compare the journals with the existing months</t>
+  </si>
+  <si>
+    <t>Represented journals should be the latest</t>
+  </si>
+  <si>
+    <t>New tab in the browser should be opened with current journal's pdf format</t>
+  </si>
+  <si>
+    <t>validate functionality of journals in home page</t>
+  </si>
+  <si>
+    <t>TS-1 Home</t>
+  </si>
+  <si>
+    <t>1. click on 1st journal                                                                                        2. click on 2nd journal                                                                                       3. click on 3rd journal</t>
+  </si>
+  <si>
+    <t>validate functionality of journals representation in home page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,12 +595,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="72"/>
@@ -1082,7 +1094,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,7 +1223,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,191 +1253,200 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1438,18 +1459,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1827,10 +1836,10 @@
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="117"/>
+      <c r="C2" s="120"/>
       <c r="D2" s="47"/>
       <c r="E2" s="2"/>
     </row>
@@ -1860,10 +1869,10 @@
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="121">
         <v>45317</v>
       </c>
-      <c r="C5" s="119"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="47"/>
       <c r="E5" s="2"/>
     </row>
@@ -2197,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90.75" x14ac:dyDescent="1.25"/>
@@ -2257,22 +2266,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>133</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="46">
@@ -2282,30 +2291,58 @@
       <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="A3" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="57"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="61"/>
+      <c r="A4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="60"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
@@ -2315,10 +2352,10 @@
       <c r="E5" s="38"/>
       <c r="F5" s="48"/>
       <c r="G5" s="38"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
@@ -2328,10 +2365,10 @@
       <c r="E6" s="38"/>
       <c r="F6" s="48"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
@@ -2341,10 +2378,10 @@
       <c r="E7" s="38"/>
       <c r="F7" s="48"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
@@ -2354,10 +2391,10 @@
       <c r="E8" s="38"/>
       <c r="F8" s="48"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" s="33" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -2367,10 +2404,10 @@
       <c r="E9" s="38"/>
       <c r="F9" s="40"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="33" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -2380,10 +2417,10 @@
       <c r="E10" s="38"/>
       <c r="F10" s="40"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" s="33" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
@@ -2393,10 +2430,10 @@
       <c r="E11" s="38"/>
       <c r="F11" s="40"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" s="33" customFormat="1" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
@@ -2406,10 +2443,10 @@
       <c r="E12" s="38"/>
       <c r="F12" s="40"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
@@ -2419,10 +2456,10 @@
       <c r="E13" s="38"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="88"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
@@ -2432,10 +2469,10 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" s="33" customFormat="1" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
@@ -2445,10 +2482,10 @@
       <c r="E15" s="38"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" s="33" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
@@ -2458,10 +2495,10 @@
       <c r="E16" s="38"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
@@ -2471,10 +2508,10 @@
       <c r="E17" s="38"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -2484,10 +2521,10 @@
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" s="33" customFormat="1" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -2497,10 +2534,10 @@
       <c r="E19" s="38"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" s="33" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
@@ -2652,7 +2689,7 @@
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="115" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="114" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="39" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.5703125" style="36" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
@@ -2674,7 +2711,7 @@
       <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
@@ -2701,22 +2738,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>55</v>
+        <v>92</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="46">
@@ -2727,393 +2764,393 @@
     </row>
     <row r="3" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>64</v>
-      </c>
       <c r="G4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="61"/>
+        <v>59</v>
+      </c>
+      <c r="H4" s="60"/>
       <c r="I4" s="46">
         <v>0</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>54</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="64"/>
+        <v>56</v>
+      </c>
+      <c r="H5" s="63"/>
       <c r="I5" s="46">
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="48" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="67"/>
+        <v>61</v>
+      </c>
+      <c r="H6" s="66"/>
       <c r="I6" s="46">
         <v>1</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="111" t="s">
-        <v>69</v>
+        <v>92</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>63</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="70"/>
+        <v>64</v>
+      </c>
+      <c r="H7" s="69"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>72</v>
+        <v>92</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>66</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="73"/>
+        <v>67</v>
+      </c>
+      <c r="H8" s="72"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>76</v>
+        <v>92</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>70</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="76"/>
+        <v>69</v>
+      </c>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>72</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="79"/>
+        <v>73</v>
+      </c>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="111" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>77</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="85"/>
+        <v>79</v>
+      </c>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>50</v>
-      </c>
       <c r="C13" s="39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>80</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="88"/>
+        <v>81</v>
+      </c>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="32"/>
       <c r="C15" s="39"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="32"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="32"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="32"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="32"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="39"/>
       <c r="C20" s="45"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="45"/>
@@ -3126,7 +3163,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="114"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
@@ -3139,7 +3176,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="32"/>
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
@@ -3152,7 +3189,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="114"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="32"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
@@ -3165,7 +3202,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="114"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="32"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
@@ -3178,7 +3215,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="114"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="32"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
@@ -3191,7 +3228,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="32"/>
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
@@ -3204,7 +3241,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="114"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
@@ -3217,7 +3254,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
@@ -3230,7 +3267,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="114"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
@@ -3257,7 +3294,7 @@
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="115" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="114" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.5703125" style="36" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
@@ -3279,7 +3316,7 @@
       <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
@@ -3306,22 +3343,22 @@
         <v>32</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>87</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="46">
@@ -3332,247 +3369,247 @@
     </row>
     <row r="3" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>88</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="58"/>
+        <v>86</v>
+      </c>
+      <c r="H3" s="57"/>
       <c r="I3" s="46">
         <v>0</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="32"/>
       <c r="C4" s="39"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="111"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="48"/>
       <c r="G4" s="38"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="32"/>
       <c r="C5" s="39"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="111"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="48"/>
       <c r="G5" s="38"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="32"/>
       <c r="C6" s="39"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="111"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="48"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="32"/>
       <c r="C7" s="39"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="111"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="40"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="32"/>
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="111"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="40"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="32"/>
       <c r="C9" s="39"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="32"/>
       <c r="C10" s="39"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="111"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="48"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="32"/>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="32"/>
       <c r="C12" s="39"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="48"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="32"/>
       <c r="C13" s="39"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="88"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="32"/>
       <c r="C15" s="39"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="32"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="32"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="32"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="32"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="39"/>
       <c r="C20" s="45"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="45"/>
@@ -3585,7 +3622,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="114"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
@@ -3598,7 +3635,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="32"/>
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
@@ -3611,7 +3648,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="114"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="32"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
@@ -3624,7 +3661,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="114"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="32"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
@@ -3637,7 +3674,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="114"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="32"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
@@ -3650,7 +3687,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="32"/>
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
@@ -3663,7 +3700,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="114"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
@@ -3676,7 +3713,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
@@ -3689,7 +3726,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="114"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
@@ -3716,7 +3753,7 @@
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="115" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="114" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.5703125" style="36" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
@@ -3738,7 +3775,7 @@
       <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
@@ -3765,19 +3802,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>102</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="54"/>
@@ -3789,315 +3826,315 @@
     </row>
     <row r="3" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="120" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="115" t="s">
+        <v>103</v>
       </c>
       <c r="G3" s="38"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="120" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>105</v>
       </c>
       <c r="G4" s="38"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="46">
         <v>1</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>101</v>
-      </c>
       <c r="D5" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>114</v>
+        <v>93</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="46">
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="111" t="s">
-        <v>115</v>
+        <v>93</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>109</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="46">
         <v>0</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="120" t="s">
-        <v>116</v>
+        <v>93</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="115" t="s">
+        <v>110</v>
       </c>
       <c r="G7" s="38"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="46">
         <v>1</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="120" t="s">
-        <v>117</v>
+      <c r="F8" s="115" t="s">
+        <v>111</v>
       </c>
       <c r="G8" s="38"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="46">
         <v>0</v>
       </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="32"/>
       <c r="C9" s="39"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="32"/>
       <c r="C10" s="39"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="111"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="48"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="32"/>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="32"/>
       <c r="C12" s="39"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="48"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="32"/>
       <c r="C13" s="39"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="88"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="32"/>
       <c r="C15" s="39"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="32"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="32"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="32"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="32"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="39"/>
       <c r="C20" s="45"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="45"/>
@@ -4110,7 +4147,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="114"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
@@ -4123,7 +4160,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="32"/>
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
@@ -4136,7 +4173,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="114"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="32"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
@@ -4149,7 +4186,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="114"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="32"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
@@ -4162,7 +4199,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="114"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="32"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
@@ -4175,7 +4212,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="32"/>
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
@@ -4188,7 +4225,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="114"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
@@ -4201,7 +4238,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
@@ -4214,7 +4251,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="114"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
@@ -4240,7 +4277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4250,7 +4287,7 @@
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="115" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="114" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.5703125" style="36" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
@@ -4272,7 +4309,7 @@
       <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
@@ -4295,23 +4332,23 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123">
+      <c r="A2" s="118">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="108" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>137</v>
+      <c r="F2" s="115" t="s">
+        <v>131</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="54"/>
@@ -4322,288 +4359,288 @@
       <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123">
+      <c r="A3" s="118">
         <v>2</v>
       </c>
-      <c r="B3" s="121" t="s">
-        <v>118</v>
+      <c r="B3" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="120" t="s">
-        <v>134</v>
-      </c>
       <c r="G3" s="38"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="46">
         <v>1</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="123">
+      <c r="A4" s="118">
         <v>3</v>
       </c>
-      <c r="B4" s="121" t="s">
-        <v>118</v>
+      <c r="B4" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="120" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>127</v>
       </c>
       <c r="G4" s="38"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="46">
         <v>2</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123">
+      <c r="A5" s="118">
         <v>4</v>
       </c>
-      <c r="B5" s="121" t="s">
-        <v>118</v>
+      <c r="B5" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="E5" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="115" t="s">
+        <v>129</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="46">
         <v>1</v>
       </c>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123">
+      <c r="A6" s="118">
         <v>5</v>
       </c>
-      <c r="B6" s="121" t="s">
-        <v>118</v>
+      <c r="B6" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="115" t="s">
+        <v>130</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="46">
         <v>1</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="39"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="120"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="32"/>
       <c r="C9" s="39"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="32"/>
       <c r="C10" s="39"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="111"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="48"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="32"/>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="32"/>
       <c r="C12" s="39"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="48"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="32"/>
       <c r="C13" s="39"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="88"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="32"/>
       <c r="C15" s="39"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="32"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="32"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="32"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="32"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="39"/>
       <c r="C20" s="45"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="45"/>
@@ -4616,7 +4653,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="114"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
@@ -4629,7 +4666,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="32"/>
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
@@ -4642,7 +4679,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="114"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="32"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
@@ -4655,7 +4692,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="114"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="32"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
@@ -4668,7 +4705,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="114"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="32"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
@@ -4681,7 +4718,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="32"/>
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
@@ -4694,7 +4731,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="114"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
@@ -4707,7 +4744,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
@@ -4720,7 +4757,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="114"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
@@ -4747,7 +4784,7 @@
     <col min="2" max="2" width="27.5703125" style="34" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="40.85546875" style="34" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="47.28515625" style="36" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="56.42578125" style="115" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="56.42578125" style="114" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="38.7109375" style="34" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="38.5703125" style="36" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="32.140625" style="34" customWidth="1" collapsed="1"/>
@@ -4769,7 +4806,7 @@
       <c r="D1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="109" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="43" t="s">
@@ -4792,26 +4829,26 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="122">
+      <c r="A2" s="117">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>118</v>
+      <c r="B2" s="116" t="s">
+        <v>112</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="120" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>45</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="46">
@@ -4821,232 +4858,232 @@
       <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="121"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="39"/>
       <c r="D3" s="38"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="120"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="38"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="121"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="39"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="38"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="46"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="62"/>
     </row>
     <row r="5" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="39"/>
       <c r="D5" s="38"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="120"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="38"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="65"/>
     </row>
     <row r="6" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="39"/>
       <c r="D6" s="38"/>
-      <c r="E6" s="111"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="48"/>
       <c r="G6" s="38"/>
-      <c r="H6" s="67"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="68"/>
     </row>
     <row r="7" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="39"/>
       <c r="D7" s="38"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="120"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="38"/>
-      <c r="H7" s="70"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="46"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="121"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="39"/>
       <c r="D8" s="38"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="115"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="46"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="32"/>
       <c r="C9" s="39"/>
       <c r="D9" s="38"/>
-      <c r="E9" s="111"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="48"/>
       <c r="G9" s="38"/>
-      <c r="H9" s="76"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="46"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="32"/>
       <c r="C10" s="39"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="111"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="48"/>
       <c r="G10" s="38"/>
-      <c r="H10" s="79"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="32"/>
       <c r="C11" s="39"/>
       <c r="D11" s="38"/>
-      <c r="E11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="48"/>
       <c r="G11" s="38"/>
-      <c r="H11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="46"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="32"/>
       <c r="C12" s="39"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="111"/>
+      <c r="E12" s="110"/>
       <c r="F12" s="48"/>
       <c r="G12" s="38"/>
-      <c r="H12" s="85"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="46"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="32"/>
       <c r="C13" s="39"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="111"/>
+      <c r="E13" s="110"/>
       <c r="F13" s="40"/>
       <c r="G13" s="38"/>
-      <c r="H13" s="88"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="32"/>
       <c r="C14" s="39"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="40"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="91"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="46"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="32"/>
       <c r="C15" s="39"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="111"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="40"/>
       <c r="G15" s="38"/>
-      <c r="H15" s="94"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="46"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
     </row>
     <row r="16" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="32"/>
       <c r="C16" s="39"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="111"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="40"/>
       <c r="G16" s="38"/>
-      <c r="H16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="99"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="32"/>
       <c r="C17" s="39"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="111"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="46"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="32"/>
       <c r="C18" s="39"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="39"/>
       <c r="G18" s="38"/>
-      <c r="H18" s="103"/>
+      <c r="H18" s="102"/>
       <c r="I18" s="46"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="105"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="19" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="32"/>
       <c r="C19" s="39"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="111"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="40"/>
       <c r="G19" s="38"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" ht="92.25" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="39"/>
       <c r="C20" s="45"/>
       <c r="D20" s="50"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="52"/>
       <c r="G20" s="51"/>
       <c r="H20" s="45"/>
@@ -5059,7 +5096,7 @@
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="35"/>
-      <c r="E21" s="114"/>
+      <c r="E21" s="113"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
       <c r="H21" s="32"/>
@@ -5072,7 +5109,7 @@
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="35"/>
-      <c r="E22" s="114"/>
+      <c r="E22" s="113"/>
       <c r="F22" s="32"/>
       <c r="G22" s="35"/>
       <c r="H22" s="32"/>
@@ -5085,7 +5122,7 @@
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="35"/>
-      <c r="E23" s="114"/>
+      <c r="E23" s="113"/>
       <c r="F23" s="32"/>
       <c r="G23" s="35"/>
       <c r="H23" s="32"/>
@@ -5098,7 +5135,7 @@
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="35"/>
-      <c r="E24" s="114"/>
+      <c r="E24" s="113"/>
       <c r="F24" s="32"/>
       <c r="G24" s="35"/>
       <c r="H24" s="32"/>
@@ -5111,7 +5148,7 @@
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="35"/>
-      <c r="E25" s="114"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="32"/>
       <c r="G25" s="35"/>
       <c r="H25" s="32"/>
@@ -5124,7 +5161,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="35"/>
-      <c r="E26" s="114"/>
+      <c r="E26" s="113"/>
       <c r="F26" s="32"/>
       <c r="G26" s="35"/>
       <c r="H26" s="32"/>
@@ -5137,7 +5174,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="35"/>
-      <c r="E27" s="114"/>
+      <c r="E27" s="113"/>
       <c r="F27" s="32"/>
       <c r="G27" s="35"/>
       <c r="H27" s="32"/>
@@ -5150,7 +5187,7 @@
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="114"/>
+      <c r="E28" s="113"/>
       <c r="F28" s="32"/>
       <c r="G28" s="35"/>
       <c r="H28" s="32"/>
@@ -5163,7 +5200,7 @@
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="35"/>
-      <c r="E29" s="114"/>
+      <c r="E29" s="113"/>
       <c r="F29" s="32"/>
       <c r="G29" s="35"/>
       <c r="H29" s="32"/>
